--- a/biology/Zoologie/Astia_maculata/Astia_maculata.xlsx
+++ b/biology/Zoologie/Astia_maculata/Astia_maculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Astia maculata, unique représentant du genre Astia, est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Astia maculata, unique représentant du genre Astia, est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre en Nouvelle-Galles du Sud et au Queensland.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en Nouvelle-Galles du Sud et au Queensland.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 2,5 mm de long sur 1,7 mm et l'abdomen 2,5 mm de long[2].
-Les mâles mesurent de 5,25 à 7,20 mm et les femelles de 5,8 à 7,5 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 2,5 mm de long sur 1,7 mm et l'abdomen 2,5 mm de long.
+Les mâles mesurent de 5,25 à 7,20 mm et les femelles de 5,8 à 7,5 mm.
 </t>
         </is>
       </c>
@@ -574,12 +590,14 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Heliophanus maculatus par Karsch en 1878. Elle est placée dans le genre Astia par Wesołowska en 2024[4].
-Astia hariola[5] a été placée en synonymie par Wesołowska en 2024[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Heliophanus maculatus par Karsch en 1878. Elle est placée dans le genre Astia par Wesołowska en 2024.
+Astia hariola a été placée en synonymie par Wesołowska en 2024.
 Ce genre a été décrit par L. Koch en 1879 dans les Attidae.
-Astituta[6] est un nom de remplacement superflu.
+Astituta est un nom de remplacement superflu.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Karsch, 1878 : « Diagnoses Attoidarum aliquot novarum Novae Hollandiae collectionis Musei Zoologici Berolinensis. » Mitteilungen der Münchener Entomologischen Verein, vol. 2, p. 22-32 (texte intégral).
 L. Koch, 1879 : Die Arachniden Australiens. Nürnberg, vol. 1, p. 1045-1156 (texte intégral).</t>
